--- a/experiment/data/bodySize/Corynactis body size measurements - Amelia.xlsx
+++ b/experiment/data/bodySize/Corynactis body size measurements - Amelia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia/github/MHWsim/experiment/data/bodySize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D67AE38-511B-B547-A650-E1B6B24C5FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861EAC8-131B-F84C-B768-1874861DBBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25400" windowHeight="19280" xr2:uid="{62BD7F3B-A361-7441-8079-A65F3CDFBEBC}"/>
+    <workbookView xWindow="2040" yWindow="500" windowWidth="25400" windowHeight="19280" xr2:uid="{62BD7F3B-A361-7441-8079-A65F3CDFBEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="238">
   <si>
     <t>Sampler</t>
   </si>
@@ -558,6 +558,198 @@
   <si>
     <t>P1124276e</t>
   </si>
+  <si>
+    <t>PC222973</t>
+  </si>
+  <si>
+    <t>PC222974</t>
+  </si>
+  <si>
+    <t>PC222975</t>
+  </si>
+  <si>
+    <t>PC222976</t>
+  </si>
+  <si>
+    <t>PP124249</t>
+  </si>
+  <si>
+    <t>PP124250</t>
+  </si>
+  <si>
+    <t>PP124252</t>
+  </si>
+  <si>
+    <t>PP124251</t>
+  </si>
+  <si>
+    <t>PB031164</t>
+  </si>
+  <si>
+    <t>PB031165</t>
+  </si>
+  <si>
+    <t>PB031166</t>
+  </si>
+  <si>
+    <t>PB031167</t>
+  </si>
+  <si>
+    <t>PB031168</t>
+  </si>
+  <si>
+    <t>PB031169</t>
+  </si>
+  <si>
+    <t>PB031261</t>
+  </si>
+  <si>
+    <t>PB031262</t>
+  </si>
+  <si>
+    <t>PB031263</t>
+  </si>
+  <si>
+    <t>PB031265</t>
+  </si>
+  <si>
+    <t>PB031266</t>
+  </si>
+  <si>
+    <t>PB031267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amelia </t>
+  </si>
+  <si>
+    <t>PC011815</t>
+  </si>
+  <si>
+    <t>PC011816</t>
+  </si>
+  <si>
+    <t>PC011817</t>
+  </si>
+  <si>
+    <t>PC011818</t>
+  </si>
+  <si>
+    <t>PC011819</t>
+  </si>
+  <si>
+    <t>PC011820</t>
+  </si>
+  <si>
+    <t>P1124392</t>
+  </si>
+  <si>
+    <t>P1124393</t>
+  </si>
+  <si>
+    <t>P1124394</t>
+  </si>
+  <si>
+    <t>PA060298</t>
+  </si>
+  <si>
+    <t>PA060299</t>
+  </si>
+  <si>
+    <t>PA060300</t>
+  </si>
+  <si>
+    <t>PA060301</t>
+  </si>
+  <si>
+    <t>PC011870</t>
+  </si>
+  <si>
+    <t>PC011871</t>
+  </si>
+  <si>
+    <t>PC011872</t>
+  </si>
+  <si>
+    <t>PC011873</t>
+  </si>
+  <si>
+    <t>PC011874</t>
+  </si>
+  <si>
+    <t>PC082369</t>
+  </si>
+  <si>
+    <t>PC082371</t>
+  </si>
+  <si>
+    <t>PC082372</t>
+  </si>
+  <si>
+    <t>PC082373</t>
+  </si>
+  <si>
+    <t>PC082374</t>
+  </si>
+  <si>
+    <t>PC293650</t>
+  </si>
+  <si>
+    <t>PC293651</t>
+  </si>
+  <si>
+    <t>PC293652</t>
+  </si>
+  <si>
+    <t>PC293653</t>
+  </si>
+  <si>
+    <t>PC293654</t>
+  </si>
+  <si>
+    <t>PA130440</t>
+  </si>
+  <si>
+    <t>PA130441</t>
+  </si>
+  <si>
+    <t>PA130442</t>
+  </si>
+  <si>
+    <t>PA130443</t>
+  </si>
+  <si>
+    <t>PA130445</t>
+  </si>
+  <si>
+    <t>PA130447</t>
+  </si>
+  <si>
+    <t>PA130466</t>
+  </si>
+  <si>
+    <t>PA130467</t>
+  </si>
+  <si>
+    <t>PA130468</t>
+  </si>
+  <si>
+    <t>PA130469</t>
+  </si>
+  <si>
+    <t>PA130470</t>
+  </si>
+  <si>
+    <t>PA130472</t>
+  </si>
+  <si>
+    <t>PA130473</t>
+  </si>
+  <si>
+    <t>PA130474</t>
+  </si>
+  <si>
+    <t>PA130475</t>
+  </si>
 </sst>
 </file>
 
@@ -620,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -629,6 +821,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D129FA4-925D-E749-8055-D13AB8DECCFA}">
-  <dimension ref="A1:P590"/>
+  <dimension ref="A1:P833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K558" sqref="K558"/>
+      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K836" sqref="K836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17318,6 +17511,6795 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>10</v>
+      </c>
+      <c r="B591" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C591" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D591" s="7">
+        <v>1</v>
+      </c>
+      <c r="E591" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
+      </c>
+      <c r="H591">
+        <v>1</v>
+      </c>
+      <c r="I591">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="J591">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>10</v>
+      </c>
+      <c r="B592" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C592" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D592" s="7">
+        <v>1</v>
+      </c>
+      <c r="E592" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F592" s="5"/>
+      <c r="H592">
+        <v>2</v>
+      </c>
+      <c r="I592">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="J592">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>10</v>
+      </c>
+      <c r="B593" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C593" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D593" s="7">
+        <v>1</v>
+      </c>
+      <c r="E593" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F593" s="5"/>
+      <c r="G593">
+        <v>2</v>
+      </c>
+      <c r="H593">
+        <v>1</v>
+      </c>
+      <c r="I593">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="J593">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>10</v>
+      </c>
+      <c r="B594" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C594" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D594" s="7">
+        <v>1</v>
+      </c>
+      <c r="E594" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H594">
+        <v>2</v>
+      </c>
+      <c r="I594">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J594">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>10</v>
+      </c>
+      <c r="B595" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C595" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D595" s="7">
+        <v>1</v>
+      </c>
+      <c r="E595" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H595">
+        <v>3</v>
+      </c>
+      <c r="I595">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J595">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>10</v>
+      </c>
+      <c r="B596" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C596" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D596" s="7">
+        <v>1</v>
+      </c>
+      <c r="E596" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G596">
+        <v>3</v>
+      </c>
+      <c r="H596">
+        <v>1</v>
+      </c>
+      <c r="I596">
+        <v>0.502</v>
+      </c>
+      <c r="J596">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>10</v>
+      </c>
+      <c r="B597" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C597" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D597" s="7">
+        <v>1</v>
+      </c>
+      <c r="E597" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H597">
+        <v>2</v>
+      </c>
+      <c r="K597" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>10</v>
+      </c>
+      <c r="B598" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C598" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D598" s="7">
+        <v>1</v>
+      </c>
+      <c r="E598" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F598" s="5"/>
+      <c r="H598">
+        <v>3</v>
+      </c>
+      <c r="I598">
+        <v>0.59</v>
+      </c>
+      <c r="J598">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>10</v>
+      </c>
+      <c r="B599" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C599" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D599" s="7">
+        <v>1</v>
+      </c>
+      <c r="E599" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F599" s="5"/>
+      <c r="H599">
+        <v>4</v>
+      </c>
+      <c r="I599">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="J599">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>10</v>
+      </c>
+      <c r="B600" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C600" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D600" s="7">
+        <v>1</v>
+      </c>
+      <c r="E600" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F600" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G600">
+        <v>4</v>
+      </c>
+      <c r="H600">
+        <v>1</v>
+      </c>
+      <c r="I600">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="J600">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>10</v>
+      </c>
+      <c r="B601" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C601" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D601" s="7">
+        <v>1</v>
+      </c>
+      <c r="E601" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H601">
+        <v>2</v>
+      </c>
+      <c r="I601">
+        <v>0.34</v>
+      </c>
+      <c r="J601">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>10</v>
+      </c>
+      <c r="B602" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C602" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D602" s="7">
+        <v>1</v>
+      </c>
+      <c r="E602" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H602">
+        <v>3</v>
+      </c>
+      <c r="I602">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J602">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>10</v>
+      </c>
+      <c r="B603" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C603" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D603" s="7">
+        <v>1</v>
+      </c>
+      <c r="E603" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H603">
+        <v>4</v>
+      </c>
+      <c r="I603">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J603">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>10</v>
+      </c>
+      <c r="B604" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C604" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D604" s="7">
+        <v>1</v>
+      </c>
+      <c r="E604" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F604" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G604">
+        <v>5</v>
+      </c>
+      <c r="H604">
+        <v>1</v>
+      </c>
+      <c r="I604">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="J604">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>10</v>
+      </c>
+      <c r="B605" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C605" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D605" s="7">
+        <v>1</v>
+      </c>
+      <c r="E605" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H605">
+        <v>2</v>
+      </c>
+      <c r="I605">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J605">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>10</v>
+      </c>
+      <c r="B606" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C606" s="6">
+        <v>45282</v>
+      </c>
+      <c r="D606" s="7">
+        <v>1</v>
+      </c>
+      <c r="E606" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H606">
+        <v>3</v>
+      </c>
+      <c r="I606">
+        <v>0.254</v>
+      </c>
+      <c r="J606">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>10</v>
+      </c>
+      <c r="B607" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C607" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D607" s="5">
+        <v>3</v>
+      </c>
+      <c r="E607" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F607" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G607" s="5">
+        <v>1</v>
+      </c>
+      <c r="H607" s="5">
+        <v>1</v>
+      </c>
+      <c r="I607" s="5">
+        <v>0.316</v>
+      </c>
+      <c r="J607" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>10</v>
+      </c>
+      <c r="B608" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C608" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D608" s="5">
+        <v>3</v>
+      </c>
+      <c r="E608" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F608" s="5"/>
+      <c r="G608" s="5">
+        <v>2</v>
+      </c>
+      <c r="H608" s="5">
+        <v>1</v>
+      </c>
+      <c r="I608" s="5">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J608" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>10</v>
+      </c>
+      <c r="B609" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C609" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D609" s="5">
+        <v>3</v>
+      </c>
+      <c r="E609" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F609" s="5"/>
+      <c r="H609" s="5">
+        <v>2</v>
+      </c>
+      <c r="I609" s="5">
+        <v>0.443</v>
+      </c>
+      <c r="J609" s="5">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>10</v>
+      </c>
+      <c r="B610" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C610" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D610" s="5">
+        <v>3</v>
+      </c>
+      <c r="E610" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F610" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G610" s="5">
+        <v>3</v>
+      </c>
+      <c r="H610" s="5">
+        <v>1</v>
+      </c>
+      <c r="I610" s="5">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="J610" s="5">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>10</v>
+      </c>
+      <c r="B611" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C611" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D611" s="5">
+        <v>3</v>
+      </c>
+      <c r="E611" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F611" s="5"/>
+      <c r="H611" s="5">
+        <v>2</v>
+      </c>
+      <c r="I611" s="5">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J611" s="5">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>10</v>
+      </c>
+      <c r="B612" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C612" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D612" s="5">
+        <v>3</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F612" s="5"/>
+      <c r="H612" s="5">
+        <v>3</v>
+      </c>
+      <c r="I612" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J612" s="5">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>10</v>
+      </c>
+      <c r="B613" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C613" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D613" s="5">
+        <v>3</v>
+      </c>
+      <c r="E613" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H613" s="5">
+        <v>4</v>
+      </c>
+      <c r="I613" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J613" s="5">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>10</v>
+      </c>
+      <c r="B614" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C614" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D614" s="5">
+        <v>3</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G614" s="5">
+        <v>4</v>
+      </c>
+      <c r="H614" s="5">
+        <v>1</v>
+      </c>
+      <c r="I614" s="5">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="J614" s="5">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>10</v>
+      </c>
+      <c r="B615" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C615" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D615" s="5">
+        <v>3</v>
+      </c>
+      <c r="E615" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H615" s="5">
+        <v>2</v>
+      </c>
+      <c r="I615" s="5">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J615" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>10</v>
+      </c>
+      <c r="B616" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C616" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D616" s="5">
+        <v>3</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H616" s="5">
+        <v>3</v>
+      </c>
+      <c r="I616" s="5">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="J616" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>10</v>
+      </c>
+      <c r="B617" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C617" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D617" s="5">
+        <v>3</v>
+      </c>
+      <c r="E617" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H617" s="5">
+        <v>4</v>
+      </c>
+      <c r="I617" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="J617" s="5">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>10</v>
+      </c>
+      <c r="B618" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C618" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D618" s="5">
+        <v>3</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G618">
+        <v>5</v>
+      </c>
+      <c r="H618" s="5">
+        <v>1</v>
+      </c>
+      <c r="I618" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J618" s="5">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>10</v>
+      </c>
+      <c r="B619" s="2">
+        <v>45531</v>
+      </c>
+      <c r="C619" s="4">
+        <v>45303</v>
+      </c>
+      <c r="D619" s="5">
+        <v>3</v>
+      </c>
+      <c r="E619" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H619" s="5">
+        <v>2</v>
+      </c>
+      <c r="I619" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="J619" s="5">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>10</v>
+      </c>
+      <c r="B620" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C620" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D620" s="7">
+        <v>6</v>
+      </c>
+      <c r="E620" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G620">
+        <v>1</v>
+      </c>
+      <c r="H620" s="5">
+        <v>1</v>
+      </c>
+      <c r="I620" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="J620" s="5">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C621" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D621" s="7">
+        <v>6</v>
+      </c>
+      <c r="E621" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F621" s="5"/>
+      <c r="H621" s="5">
+        <v>2</v>
+      </c>
+      <c r="I621" s="5">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="J621" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>10</v>
+      </c>
+      <c r="B622" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C622" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D622" s="7">
+        <v>6</v>
+      </c>
+      <c r="E622" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F622" s="5"/>
+      <c r="H622" s="5">
+        <v>3</v>
+      </c>
+      <c r="I622" s="5">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="J622" s="5">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>10</v>
+      </c>
+      <c r="B623" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C623" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D623" s="7">
+        <v>6</v>
+      </c>
+      <c r="E623" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F623" s="5"/>
+      <c r="H623" s="5">
+        <v>4</v>
+      </c>
+      <c r="I623" s="5">
+        <v>0.627</v>
+      </c>
+      <c r="J623" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>10</v>
+      </c>
+      <c r="B624" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C624" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D624" s="7">
+        <v>6</v>
+      </c>
+      <c r="E624" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H624" s="5">
+        <v>5</v>
+      </c>
+      <c r="I624" s="5">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J624" s="5">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>10</v>
+      </c>
+      <c r="B625" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C625" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D625" s="7">
+        <v>6</v>
+      </c>
+      <c r="E625" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F625" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G625">
+        <v>2</v>
+      </c>
+      <c r="H625">
+        <v>1</v>
+      </c>
+      <c r="I625" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="J625" s="5">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>10</v>
+      </c>
+      <c r="B626" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C626" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D626" s="7">
+        <v>6</v>
+      </c>
+      <c r="E626" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F626" s="5"/>
+      <c r="H626">
+        <v>2</v>
+      </c>
+      <c r="I626" s="5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J626" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>10</v>
+      </c>
+      <c r="B627" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C627" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D627" s="7">
+        <v>6</v>
+      </c>
+      <c r="E627" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F627" s="5"/>
+      <c r="H627">
+        <v>3</v>
+      </c>
+      <c r="I627" s="5">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J627" s="5">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>10</v>
+      </c>
+      <c r="B628" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C628" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D628" s="7">
+        <v>6</v>
+      </c>
+      <c r="E628" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F628" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G628">
+        <v>3</v>
+      </c>
+      <c r="H628">
+        <v>1</v>
+      </c>
+      <c r="I628" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J628" s="5">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>10</v>
+      </c>
+      <c r="B629" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C629" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D629" s="7">
+        <v>6</v>
+      </c>
+      <c r="E629" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F629" s="5"/>
+      <c r="H629">
+        <v>2</v>
+      </c>
+      <c r="I629" s="5">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="J629" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>10</v>
+      </c>
+      <c r="B630" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C630" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D630" s="7">
+        <v>6</v>
+      </c>
+      <c r="E630" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F630" s="5"/>
+      <c r="H630">
+        <v>3</v>
+      </c>
+      <c r="I630" s="5">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J630" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>10</v>
+      </c>
+      <c r="B631" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C631" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D631" s="7">
+        <v>6</v>
+      </c>
+      <c r="E631" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F631" s="5"/>
+      <c r="H631">
+        <v>4</v>
+      </c>
+      <c r="I631" s="5">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J631" s="5">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>10</v>
+      </c>
+      <c r="B632" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C632" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D632" s="7">
+        <v>6</v>
+      </c>
+      <c r="E632" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F632" s="5"/>
+      <c r="H632">
+        <v>5</v>
+      </c>
+      <c r="I632" s="5">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="J632" s="5">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>10</v>
+      </c>
+      <c r="B633" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C633" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D633" s="7">
+        <v>6</v>
+      </c>
+      <c r="E633" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F633" s="5"/>
+      <c r="H633">
+        <v>6</v>
+      </c>
+      <c r="I633" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J633" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>10</v>
+      </c>
+      <c r="B634" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C634" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D634" s="7">
+        <v>6</v>
+      </c>
+      <c r="E634" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F634" s="5"/>
+      <c r="H634">
+        <v>7</v>
+      </c>
+      <c r="I634" s="5">
+        <v>0.443</v>
+      </c>
+      <c r="J634" s="5">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>10</v>
+      </c>
+      <c r="B635" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C635" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D635" s="7">
+        <v>6</v>
+      </c>
+      <c r="E635" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F635" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G635">
+        <v>4</v>
+      </c>
+      <c r="H635">
+        <v>1</v>
+      </c>
+      <c r="I635" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J635" s="5">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>10</v>
+      </c>
+      <c r="B636" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C636" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D636" s="7">
+        <v>6</v>
+      </c>
+      <c r="E636" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H636">
+        <v>2</v>
+      </c>
+      <c r="I636" s="5">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J636" s="5">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>10</v>
+      </c>
+      <c r="B637" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C637" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D637" s="7">
+        <v>6</v>
+      </c>
+      <c r="E637" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G637">
+        <v>5</v>
+      </c>
+      <c r="H637">
+        <v>1</v>
+      </c>
+      <c r="I637" s="5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J637" s="5">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>10</v>
+      </c>
+      <c r="B638" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C638" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D638" s="7">
+        <v>6</v>
+      </c>
+      <c r="E638" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F638" s="5"/>
+      <c r="H638">
+        <v>2</v>
+      </c>
+      <c r="I638" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="J638" s="5">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>10</v>
+      </c>
+      <c r="B639" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C639" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D639" s="7">
+        <v>6</v>
+      </c>
+      <c r="E639" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F639" s="5"/>
+      <c r="H639">
+        <v>3</v>
+      </c>
+      <c r="I639" s="5">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J639" s="5">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>10</v>
+      </c>
+      <c r="B640" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C640" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D640" s="7">
+        <v>6</v>
+      </c>
+      <c r="E640" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F640" s="5"/>
+      <c r="H640">
+        <v>4</v>
+      </c>
+      <c r="I640" s="5">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J640" s="5">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>10</v>
+      </c>
+      <c r="B641" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C641" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D641" s="7">
+        <v>6</v>
+      </c>
+      <c r="E641" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F641" s="5"/>
+      <c r="H641">
+        <v>5</v>
+      </c>
+      <c r="I641" s="5">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="J641" s="5">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>10</v>
+      </c>
+      <c r="B642" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C642" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D642" s="7">
+        <v>6</v>
+      </c>
+      <c r="E642" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H642">
+        <v>6</v>
+      </c>
+      <c r="I642" s="5">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J642" s="5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>10</v>
+      </c>
+      <c r="B643" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C643" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D643" s="7">
+        <v>6</v>
+      </c>
+      <c r="E643" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F643" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G643">
+        <v>6</v>
+      </c>
+      <c r="H643">
+        <v>1</v>
+      </c>
+      <c r="I643" s="5">
+        <v>0.626</v>
+      </c>
+      <c r="J643" s="5">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>10</v>
+      </c>
+      <c r="B644" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C644" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D644" s="7">
+        <v>6</v>
+      </c>
+      <c r="E644" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G644">
+        <v>7</v>
+      </c>
+      <c r="H644">
+        <v>2</v>
+      </c>
+      <c r="I644" s="5">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="J644" s="5">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>10</v>
+      </c>
+      <c r="B645" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C645" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D645" s="7">
+        <v>9</v>
+      </c>
+      <c r="E645" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F645" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G645" s="5">
+        <v>1</v>
+      </c>
+      <c r="H645">
+        <v>1</v>
+      </c>
+      <c r="I645" s="5">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J645" s="5">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>10</v>
+      </c>
+      <c r="B646" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C646" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D646" s="7">
+        <v>9</v>
+      </c>
+      <c r="E646" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F646" s="5"/>
+      <c r="G646" s="5">
+        <v>2</v>
+      </c>
+      <c r="H646">
+        <v>2</v>
+      </c>
+      <c r="I646" s="5">
+        <v>1.008</v>
+      </c>
+      <c r="J646" s="5">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>10</v>
+      </c>
+      <c r="B647" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C647" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D647" s="7">
+        <v>9</v>
+      </c>
+      <c r="E647" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F647" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G647" s="5">
+        <v>1</v>
+      </c>
+      <c r="H647">
+        <v>1</v>
+      </c>
+      <c r="I647" s="5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J647" s="5">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>10</v>
+      </c>
+      <c r="B648" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C648" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D648" s="7">
+        <v>9</v>
+      </c>
+      <c r="E648" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F648" s="5"/>
+      <c r="G648" s="5">
+        <v>3</v>
+      </c>
+      <c r="H648">
+        <v>1</v>
+      </c>
+      <c r="I648" s="5">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="J648" s="5">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>10</v>
+      </c>
+      <c r="B649" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C649" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D649" s="7">
+        <v>9</v>
+      </c>
+      <c r="E649" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F649" s="5"/>
+      <c r="H649">
+        <v>2</v>
+      </c>
+      <c r="I649" s="5">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J649" s="5">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>10</v>
+      </c>
+      <c r="B650" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C650" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D650" s="7">
+        <v>9</v>
+      </c>
+      <c r="E650" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F650" s="5"/>
+      <c r="H650">
+        <v>3</v>
+      </c>
+      <c r="I650" s="5">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="J650" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>10</v>
+      </c>
+      <c r="B651" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C651" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D651" s="7">
+        <v>9</v>
+      </c>
+      <c r="E651" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F651" s="5"/>
+      <c r="H651">
+        <v>4</v>
+      </c>
+      <c r="I651" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="J651" s="5">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>10</v>
+      </c>
+      <c r="B652" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C652" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D652" s="7">
+        <v>9</v>
+      </c>
+      <c r="E652" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F652" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G652" s="5">
+        <v>4</v>
+      </c>
+      <c r="H652" s="5">
+        <v>1</v>
+      </c>
+      <c r="I652" s="5">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J652" s="5">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>10</v>
+      </c>
+      <c r="B653" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C653" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D653" s="7">
+        <v>9</v>
+      </c>
+      <c r="E653" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F653" s="5"/>
+      <c r="H653" s="5">
+        <v>2</v>
+      </c>
+      <c r="I653" s="5">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="J653" s="5">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>10</v>
+      </c>
+      <c r="B654" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C654" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D654" s="7">
+        <v>9</v>
+      </c>
+      <c r="E654" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F654" s="5"/>
+      <c r="H654" s="5">
+        <v>3</v>
+      </c>
+      <c r="I654" s="5">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J654" s="5">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>10</v>
+      </c>
+      <c r="B655" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C655" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D655" s="7">
+        <v>9</v>
+      </c>
+      <c r="E655" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H655" s="5">
+        <v>4</v>
+      </c>
+      <c r="I655" s="5">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J655">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>10</v>
+      </c>
+      <c r="B656" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C656" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D656" s="7">
+        <v>9</v>
+      </c>
+      <c r="E656" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F656" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G656" s="5">
+        <v>5</v>
+      </c>
+      <c r="H656">
+        <v>1</v>
+      </c>
+      <c r="I656" s="5">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="J656">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>10</v>
+      </c>
+      <c r="B657" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C657" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D657" s="7">
+        <v>9</v>
+      </c>
+      <c r="E657" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F657" s="5"/>
+      <c r="H657">
+        <v>2</v>
+      </c>
+      <c r="I657" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J657">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>10</v>
+      </c>
+      <c r="B658" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C658" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D658" s="7">
+        <v>9</v>
+      </c>
+      <c r="E658" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F658" s="5"/>
+      <c r="H658">
+        <v>3</v>
+      </c>
+      <c r="I658" s="5">
+        <v>1.008</v>
+      </c>
+      <c r="J658">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>10</v>
+      </c>
+      <c r="B659" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C659" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D659" s="7">
+        <v>9</v>
+      </c>
+      <c r="E659" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F659" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G659" s="5">
+        <v>6</v>
+      </c>
+      <c r="H659">
+        <v>1</v>
+      </c>
+      <c r="I659" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="J659">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>10</v>
+      </c>
+      <c r="B660" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C660" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D660" s="7">
+        <v>9</v>
+      </c>
+      <c r="E660" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F660" s="5"/>
+      <c r="H660">
+        <v>2</v>
+      </c>
+      <c r="I660" s="5">
+        <v>0.376</v>
+      </c>
+      <c r="J660">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>10</v>
+      </c>
+      <c r="B661" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C661" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D661" s="7">
+        <v>9</v>
+      </c>
+      <c r="E661" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F661" s="5"/>
+      <c r="H661">
+        <v>3</v>
+      </c>
+      <c r="I661" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="J661">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>10</v>
+      </c>
+      <c r="B662" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C662" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D662" s="7">
+        <v>9</v>
+      </c>
+      <c r="E662" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F662" s="5"/>
+      <c r="H662">
+        <v>4</v>
+      </c>
+      <c r="I662" s="5">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J662">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>10</v>
+      </c>
+      <c r="B663" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C663" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D663" s="7">
+        <v>9</v>
+      </c>
+      <c r="E663" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F663" s="5"/>
+      <c r="H663">
+        <v>5</v>
+      </c>
+      <c r="K663" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>10</v>
+      </c>
+      <c r="B664" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C664" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D664" s="7">
+        <v>9</v>
+      </c>
+      <c r="E664" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F664" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G664" s="5">
+        <v>7</v>
+      </c>
+      <c r="H664">
+        <v>1</v>
+      </c>
+      <c r="I664">
+        <v>0.629</v>
+      </c>
+      <c r="J664">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>10</v>
+      </c>
+      <c r="B665" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C665" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D665" s="7">
+        <v>9</v>
+      </c>
+      <c r="E665" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F665" s="5"/>
+      <c r="H665">
+        <v>2</v>
+      </c>
+      <c r="I665">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J665">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>10</v>
+      </c>
+      <c r="B666" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C666" s="6">
+        <v>45233</v>
+      </c>
+      <c r="D666" s="7">
+        <v>9</v>
+      </c>
+      <c r="E666" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F666" s="5"/>
+      <c r="H666">
+        <v>3</v>
+      </c>
+      <c r="I666">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J666">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K666" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>194</v>
+      </c>
+      <c r="B667" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C667" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D667" s="3">
+        <v>9</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G667">
+        <v>1</v>
+      </c>
+      <c r="H667">
+        <v>1</v>
+      </c>
+      <c r="I667" s="3">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J667" s="3">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>10</v>
+      </c>
+      <c r="B668" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C668" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D668" s="3">
+        <v>9</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F668" s="3"/>
+      <c r="H668">
+        <v>2</v>
+      </c>
+      <c r="I668" s="3">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J668" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>194</v>
+      </c>
+      <c r="B669" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C669" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D669" s="3">
+        <v>9</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G669">
+        <v>2</v>
+      </c>
+      <c r="H669">
+        <v>1</v>
+      </c>
+      <c r="I669">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="J669">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>10</v>
+      </c>
+      <c r="B670" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C670" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D670" s="3">
+        <v>9</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F670" s="3"/>
+      <c r="H670">
+        <v>2</v>
+      </c>
+      <c r="I670">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="J670">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>194</v>
+      </c>
+      <c r="B671" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C671" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D671" s="3">
+        <v>9</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F671" s="3"/>
+      <c r="H671">
+        <v>3</v>
+      </c>
+      <c r="I671">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J671" s="3">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>10</v>
+      </c>
+      <c r="B672" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C672" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D672" s="3">
+        <v>9</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G672">
+        <v>3</v>
+      </c>
+      <c r="H672">
+        <v>1</v>
+      </c>
+      <c r="I672">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J672" s="3">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>194</v>
+      </c>
+      <c r="B673" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C673" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D673" s="3">
+        <v>9</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F673" s="3"/>
+      <c r="H673">
+        <v>2</v>
+      </c>
+      <c r="I673">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J673" s="3">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>10</v>
+      </c>
+      <c r="B674" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C674" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D674" s="3">
+        <v>9</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F674" s="3"/>
+      <c r="H674">
+        <v>3</v>
+      </c>
+      <c r="I674">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="J674" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>194</v>
+      </c>
+      <c r="B675" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C675" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D675" s="3">
+        <v>9</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G675">
+        <v>4</v>
+      </c>
+      <c r="H675" s="3">
+        <v>1</v>
+      </c>
+      <c r="I675" s="3">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="J675" s="3">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>10</v>
+      </c>
+      <c r="B676" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C676" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D676" s="3">
+        <v>9</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F676" s="3"/>
+      <c r="H676">
+        <v>2</v>
+      </c>
+      <c r="I676">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J676" s="3">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>194</v>
+      </c>
+      <c r="B677" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C677" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D677" s="3">
+        <v>9</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F677" s="3"/>
+      <c r="H677">
+        <v>3</v>
+      </c>
+      <c r="I677">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J677" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>10</v>
+      </c>
+      <c r="B678" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C678" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D678" s="3">
+        <v>9</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F678" s="3"/>
+      <c r="H678">
+        <v>4</v>
+      </c>
+      <c r="I678">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="J678" s="3">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>194</v>
+      </c>
+      <c r="B679" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C679" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D679" s="3">
+        <v>9</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F679" s="3"/>
+      <c r="H679">
+        <v>5</v>
+      </c>
+      <c r="I679">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J679" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>10</v>
+      </c>
+      <c r="B680" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C680" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D680" s="3">
+        <v>9</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F680" s="3"/>
+      <c r="H680">
+        <v>6</v>
+      </c>
+      <c r="I680">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J680" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>194</v>
+      </c>
+      <c r="B681" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C681" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D681" s="3">
+        <v>9</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F681" s="3"/>
+      <c r="H681">
+        <v>7</v>
+      </c>
+      <c r="I681">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="J681" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>10</v>
+      </c>
+      <c r="B682" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C682" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D682" s="3">
+        <v>9</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F682" s="3"/>
+      <c r="H682">
+        <v>8</v>
+      </c>
+      <c r="I682">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="J682" s="3">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>194</v>
+      </c>
+      <c r="B683" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C683" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D683" s="3">
+        <v>9</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F683" s="3"/>
+      <c r="H683">
+        <v>9</v>
+      </c>
+      <c r="I683">
+        <v>0.626</v>
+      </c>
+      <c r="J683" s="3">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>10</v>
+      </c>
+      <c r="B684" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C684" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D684" s="3">
+        <v>9</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G684">
+        <v>5</v>
+      </c>
+      <c r="H684" s="3">
+        <v>1</v>
+      </c>
+      <c r="I684" s="3">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J684" s="3">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>194</v>
+      </c>
+      <c r="B685" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C685" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D685" s="3">
+        <v>9</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H685">
+        <v>2</v>
+      </c>
+      <c r="I685">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="J685" s="3">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>10</v>
+      </c>
+      <c r="B686" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C686" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D686" s="3">
+        <v>9</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F686" s="3"/>
+      <c r="H686">
+        <v>3</v>
+      </c>
+      <c r="I686">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J686" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>194</v>
+      </c>
+      <c r="B687" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C687" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D687" s="3">
+        <v>9</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F687" s="3"/>
+      <c r="H687">
+        <v>4</v>
+      </c>
+      <c r="I687">
+        <v>0.59</v>
+      </c>
+      <c r="J687" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>10</v>
+      </c>
+      <c r="B688" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C688" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D688" s="3">
+        <v>9</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G688">
+        <v>6</v>
+      </c>
+      <c r="H688">
+        <v>1</v>
+      </c>
+      <c r="I688" s="3">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J688" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>194</v>
+      </c>
+      <c r="B689" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C689" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D689" s="3">
+        <v>9</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H689">
+        <v>2</v>
+      </c>
+      <c r="I689">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J689" s="3">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>10</v>
+      </c>
+      <c r="B690" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C690" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D690" s="3">
+        <v>9</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H690">
+        <v>3</v>
+      </c>
+      <c r="I690">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J690" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>194</v>
+      </c>
+      <c r="B691" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C691" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D691" s="3">
+        <v>9</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H691">
+        <v>4</v>
+      </c>
+      <c r="I691">
+        <v>0.45</v>
+      </c>
+      <c r="J691" s="3">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>10</v>
+      </c>
+      <c r="B692" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C692" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D692" s="3">
+        <v>9</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H692">
+        <v>5</v>
+      </c>
+      <c r="I692">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J692" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>194</v>
+      </c>
+      <c r="B693" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C693" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D693" s="3">
+        <v>9</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H693">
+        <v>6</v>
+      </c>
+      <c r="I693">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="J693" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>10</v>
+      </c>
+      <c r="B694" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C694" s="8">
+        <v>45261</v>
+      </c>
+      <c r="D694" s="3">
+        <v>9</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H694">
+        <v>7</v>
+      </c>
+      <c r="I694">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="J694" s="3">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>10</v>
+      </c>
+      <c r="B695" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C695" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D695" s="7">
+        <v>9</v>
+      </c>
+      <c r="E695" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F695" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G695" s="5">
+        <v>1</v>
+      </c>
+      <c r="H695">
+        <v>1</v>
+      </c>
+      <c r="I695">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J695" s="3">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>194</v>
+      </c>
+      <c r="B696" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C696" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D696" s="7">
+        <v>9</v>
+      </c>
+      <c r="E696" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H696">
+        <v>2</v>
+      </c>
+      <c r="I696">
+        <v>0.253</v>
+      </c>
+      <c r="J696" s="3">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>10</v>
+      </c>
+      <c r="B697" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C697" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D697" s="7">
+        <v>9</v>
+      </c>
+      <c r="E697" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H697">
+        <v>3</v>
+      </c>
+      <c r="I697">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J697" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>194</v>
+      </c>
+      <c r="B698" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C698" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D698" s="7">
+        <v>9</v>
+      </c>
+      <c r="E698" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H698">
+        <v>4</v>
+      </c>
+      <c r="I698">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J698" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>10</v>
+      </c>
+      <c r="B699" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C699" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D699" s="7">
+        <v>9</v>
+      </c>
+      <c r="E699" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H699">
+        <v>5</v>
+      </c>
+      <c r="I699">
+        <v>0.505</v>
+      </c>
+      <c r="J699" s="3">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>10</v>
+      </c>
+      <c r="B700" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C700" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D700" s="7">
+        <v>9</v>
+      </c>
+      <c r="E700" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H700">
+        <v>6</v>
+      </c>
+      <c r="I700">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J700" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>194</v>
+      </c>
+      <c r="B701" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C701" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D701" s="7">
+        <v>9</v>
+      </c>
+      <c r="E701" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F701" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G701" s="5">
+        <v>2</v>
+      </c>
+      <c r="H701" s="5">
+        <v>1</v>
+      </c>
+      <c r="I701" s="5">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J701" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>10</v>
+      </c>
+      <c r="B702" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C702" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D702" s="7">
+        <v>9</v>
+      </c>
+      <c r="E702" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F702" s="5"/>
+      <c r="H702" s="5">
+        <v>2</v>
+      </c>
+      <c r="I702" s="5">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="J702" s="3">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>10</v>
+      </c>
+      <c r="B703" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C703" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D703" s="7">
+        <v>9</v>
+      </c>
+      <c r="E703" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F703" s="5"/>
+      <c r="H703" s="5">
+        <v>3</v>
+      </c>
+      <c r="I703" s="5">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J703" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>194</v>
+      </c>
+      <c r="B704" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C704" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D704" s="7">
+        <v>9</v>
+      </c>
+      <c r="E704" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F704" s="5"/>
+      <c r="H704" s="5">
+        <v>4</v>
+      </c>
+      <c r="I704" s="5">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="J704" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>10</v>
+      </c>
+      <c r="B705" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C705" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D705" s="7">
+        <v>9</v>
+      </c>
+      <c r="E705" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F705" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G705">
+        <v>3</v>
+      </c>
+      <c r="H705" s="5">
+        <v>1</v>
+      </c>
+      <c r="I705" s="5">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J705" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>194</v>
+      </c>
+      <c r="B706" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C706" s="6">
+        <v>45303</v>
+      </c>
+      <c r="D706" s="7">
+        <v>9</v>
+      </c>
+      <c r="E706" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H706" s="5">
+        <v>2</v>
+      </c>
+      <c r="I706" s="5">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="J706" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>194</v>
+      </c>
+      <c r="B707" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C707" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D707" s="7">
+        <v>11</v>
+      </c>
+      <c r="E707" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F707" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G707" s="5">
+        <v>1</v>
+      </c>
+      <c r="H707" s="5">
+        <v>1</v>
+      </c>
+      <c r="I707" s="5">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J707" s="3">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>10</v>
+      </c>
+      <c r="B708" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C708" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D708" s="7">
+        <v>11</v>
+      </c>
+      <c r="E708" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F708" s="5"/>
+      <c r="H708" s="5">
+        <v>2</v>
+      </c>
+      <c r="I708" s="5">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J708" s="3">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>10</v>
+      </c>
+      <c r="B709" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C709" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D709" s="7">
+        <v>11</v>
+      </c>
+      <c r="E709" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F709" s="5"/>
+      <c r="H709" s="5">
+        <v>3</v>
+      </c>
+      <c r="I709" s="5">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="J709" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>194</v>
+      </c>
+      <c r="B710" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C710" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D710" s="7">
+        <v>11</v>
+      </c>
+      <c r="E710" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F710" s="5"/>
+      <c r="H710" s="5">
+        <v>4</v>
+      </c>
+      <c r="I710" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="J710" s="3">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>10</v>
+      </c>
+      <c r="B711" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C711" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D711" s="7">
+        <v>11</v>
+      </c>
+      <c r="E711" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F711" s="5"/>
+      <c r="H711" s="5">
+        <v>5</v>
+      </c>
+      <c r="I711" s="5">
+        <v>1.173</v>
+      </c>
+      <c r="J711" s="3">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>10</v>
+      </c>
+      <c r="B712" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C712" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D712" s="7">
+        <v>11</v>
+      </c>
+      <c r="E712" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F712" s="5"/>
+      <c r="H712" s="5">
+        <v>6</v>
+      </c>
+      <c r="I712" s="5">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="J712" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>194</v>
+      </c>
+      <c r="B713" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C713" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D713" s="7">
+        <v>11</v>
+      </c>
+      <c r="E713" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F713" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H713" s="5">
+        <v>1</v>
+      </c>
+      <c r="I713" s="5">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="J713" s="3">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>10</v>
+      </c>
+      <c r="B714" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C714" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D714" s="7">
+        <v>11</v>
+      </c>
+      <c r="E714" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F714" s="5"/>
+      <c r="H714" s="5">
+        <v>2</v>
+      </c>
+      <c r="I714" s="5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J714" s="3">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>194</v>
+      </c>
+      <c r="B715" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C715" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D715" s="7">
+        <v>11</v>
+      </c>
+      <c r="E715" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F715" s="5"/>
+      <c r="H715" s="5">
+        <v>3</v>
+      </c>
+      <c r="I715" s="5">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J715" s="3">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>194</v>
+      </c>
+      <c r="B716" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C716" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D716" s="7">
+        <v>11</v>
+      </c>
+      <c r="E716" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F716" s="5"/>
+      <c r="H716" s="5">
+        <v>4</v>
+      </c>
+      <c r="I716" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="J716" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>10</v>
+      </c>
+      <c r="B717" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C717" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D717" s="7">
+        <v>11</v>
+      </c>
+      <c r="E717" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H717" s="5">
+        <v>5</v>
+      </c>
+      <c r="I717" s="5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="J717" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>10</v>
+      </c>
+      <c r="B718" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C718" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D718" s="7">
+        <v>11</v>
+      </c>
+      <c r="E718" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F718" s="5"/>
+      <c r="H718" s="5">
+        <v>6</v>
+      </c>
+      <c r="I718" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J718" s="3">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>194</v>
+      </c>
+      <c r="B719" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C719" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D719" s="7">
+        <v>11</v>
+      </c>
+      <c r="E719" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F719" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H719" s="5">
+        <v>1</v>
+      </c>
+      <c r="I719" s="5">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="J719" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>10</v>
+      </c>
+      <c r="B720" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C720" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D720" s="7">
+        <v>11</v>
+      </c>
+      <c r="E720" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F720" s="5"/>
+      <c r="H720" s="5">
+        <v>2</v>
+      </c>
+      <c r="I720" s="5">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="J720" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>10</v>
+      </c>
+      <c r="B721" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C721" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D721" s="7">
+        <v>11</v>
+      </c>
+      <c r="E721" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F721" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H721" s="5">
+        <v>1</v>
+      </c>
+      <c r="I721" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="J721" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>194</v>
+      </c>
+      <c r="B722" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C722" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D722" s="7">
+        <v>11</v>
+      </c>
+      <c r="E722" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F722" s="5"/>
+      <c r="H722" s="5">
+        <v>2</v>
+      </c>
+      <c r="I722" s="5">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="J722" s="3">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>10</v>
+      </c>
+      <c r="B723" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C723" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D723" s="7">
+        <v>11</v>
+      </c>
+      <c r="E723" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H723" s="5">
+        <v>3</v>
+      </c>
+      <c r="I723" s="5">
+        <v>1.151</v>
+      </c>
+      <c r="J723" s="3">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>194</v>
+      </c>
+      <c r="B724" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C724" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D724" s="7">
+        <v>11</v>
+      </c>
+      <c r="E724" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H724" s="5">
+        <v>4</v>
+      </c>
+      <c r="I724" s="5">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J724" s="3">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>10</v>
+      </c>
+      <c r="B725" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C725" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D725" s="7">
+        <v>11</v>
+      </c>
+      <c r="E725" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H725" s="5">
+        <v>5</v>
+      </c>
+      <c r="I725" s="5">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J725" s="3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="K725" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>10</v>
+      </c>
+      <c r="B726" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C726" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D726" s="7">
+        <v>11</v>
+      </c>
+      <c r="E726" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F726" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G726" s="5">
+        <v>1</v>
+      </c>
+      <c r="H726" s="5">
+        <v>1</v>
+      </c>
+      <c r="I726" s="5">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="J726" s="3">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>10</v>
+      </c>
+      <c r="B727" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C727" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D727" s="7">
+        <v>11</v>
+      </c>
+      <c r="E727" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F727" s="5"/>
+      <c r="G727" s="5"/>
+      <c r="H727" s="5">
+        <v>2</v>
+      </c>
+      <c r="I727" s="5">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="J727" s="3">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>194</v>
+      </c>
+      <c r="B728" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C728" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D728" s="7">
+        <v>11</v>
+      </c>
+      <c r="E728" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F728" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G728" s="5">
+        <v>2</v>
+      </c>
+      <c r="H728" s="5">
+        <v>1</v>
+      </c>
+      <c r="I728" s="5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J728" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>10</v>
+      </c>
+      <c r="B729" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C729" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D729" s="7">
+        <v>11</v>
+      </c>
+      <c r="E729" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F729" s="5"/>
+      <c r="H729" s="5">
+        <v>2</v>
+      </c>
+      <c r="I729" s="5">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J729" s="3">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>10</v>
+      </c>
+      <c r="B730" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C730" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D730" s="7">
+        <v>11</v>
+      </c>
+      <c r="E730" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F730" s="5"/>
+      <c r="H730" s="5">
+        <v>3</v>
+      </c>
+      <c r="I730" s="5">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="J730" s="3">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>194</v>
+      </c>
+      <c r="B731" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C731" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D731" s="7">
+        <v>11</v>
+      </c>
+      <c r="E731" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F731" s="5"/>
+      <c r="H731" s="5">
+        <v>4</v>
+      </c>
+      <c r="I731" s="5">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J731" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>10</v>
+      </c>
+      <c r="B732" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C732" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D732" s="7">
+        <v>11</v>
+      </c>
+      <c r="E732" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F732" s="5"/>
+      <c r="H732" s="5">
+        <v>5</v>
+      </c>
+      <c r="I732" s="5">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J732" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>194</v>
+      </c>
+      <c r="B733" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C733" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D733" s="7">
+        <v>11</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H733" s="5">
+        <v>6</v>
+      </c>
+      <c r="K733" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>10</v>
+      </c>
+      <c r="B734" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C734" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D734" s="7">
+        <v>11</v>
+      </c>
+      <c r="E734" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F734" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G734" s="5">
+        <v>3</v>
+      </c>
+      <c r="H734" s="5">
+        <v>1</v>
+      </c>
+      <c r="I734" s="5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J734" s="3">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>10</v>
+      </c>
+      <c r="B735" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C735" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D735" s="7">
+        <v>11</v>
+      </c>
+      <c r="E735" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F735" s="5"/>
+      <c r="H735" s="5">
+        <v>2</v>
+      </c>
+      <c r="I735" s="5">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="J735" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>10</v>
+      </c>
+      <c r="B736" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C736" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D736" s="7">
+        <v>11</v>
+      </c>
+      <c r="E736" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F736" s="5"/>
+      <c r="H736" s="5">
+        <v>3</v>
+      </c>
+      <c r="I736" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="J736" s="3">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>194</v>
+      </c>
+      <c r="B737" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C737" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D737" s="7">
+        <v>11</v>
+      </c>
+      <c r="E737" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F737" s="5"/>
+      <c r="H737" s="5">
+        <v>4</v>
+      </c>
+      <c r="I737" s="5">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J737" s="3">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>10</v>
+      </c>
+      <c r="B738" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C738" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D738" s="7">
+        <v>11</v>
+      </c>
+      <c r="E738" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F738" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G738" s="5">
+        <v>4</v>
+      </c>
+      <c r="H738" s="5">
+        <v>1</v>
+      </c>
+      <c r="I738" s="5">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="J738" s="3">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>10</v>
+      </c>
+      <c r="B739" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C739" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D739" s="7">
+        <v>11</v>
+      </c>
+      <c r="E739" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F739" s="5"/>
+      <c r="H739" s="5">
+        <v>2</v>
+      </c>
+      <c r="I739" s="5">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="J739" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>194</v>
+      </c>
+      <c r="B740" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C740" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D740" s="7">
+        <v>11</v>
+      </c>
+      <c r="E740" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F740" s="5"/>
+      <c r="H740" s="5">
+        <v>3</v>
+      </c>
+      <c r="I740" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="J740" s="3">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>10</v>
+      </c>
+      <c r="B741" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C741" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D741" s="7">
+        <v>11</v>
+      </c>
+      <c r="E741" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F741" s="5"/>
+      <c r="H741" s="5">
+        <v>4</v>
+      </c>
+      <c r="I741" s="5">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="J741" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>194</v>
+      </c>
+      <c r="B742" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C742" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D742" s="7">
+        <v>11</v>
+      </c>
+      <c r="E742" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F742" s="5"/>
+      <c r="H742" s="5">
+        <v>5</v>
+      </c>
+      <c r="K742" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>10</v>
+      </c>
+      <c r="B743" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C743" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D743" s="7">
+        <v>11</v>
+      </c>
+      <c r="E743" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F743" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G743" s="5">
+        <v>5</v>
+      </c>
+      <c r="H743" s="5">
+        <v>1</v>
+      </c>
+      <c r="I743" s="5">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="J743" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>10</v>
+      </c>
+      <c r="B744" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C744" s="6">
+        <v>45261</v>
+      </c>
+      <c r="D744" s="7">
+        <v>11</v>
+      </c>
+      <c r="E744" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H744" s="5">
+        <v>2</v>
+      </c>
+      <c r="I744" s="5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J744" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>10</v>
+      </c>
+      <c r="B745" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C745" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D745" s="7">
+        <v>11</v>
+      </c>
+      <c r="E745" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F745" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G745" s="5">
+        <v>1</v>
+      </c>
+      <c r="H745" s="5">
+        <v>1</v>
+      </c>
+      <c r="I745" s="5">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="J745" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>194</v>
+      </c>
+      <c r="B746" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C746" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D746" s="7">
+        <v>11</v>
+      </c>
+      <c r="E746" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F746" s="5"/>
+      <c r="H746" s="5">
+        <v>2</v>
+      </c>
+      <c r="I746" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="J746" s="3">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>10</v>
+      </c>
+      <c r="B747" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C747" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D747" s="7">
+        <v>11</v>
+      </c>
+      <c r="E747" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F747" s="5"/>
+      <c r="H747" s="5">
+        <v>3</v>
+      </c>
+      <c r="I747" s="5">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="J747" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>10</v>
+      </c>
+      <c r="B748" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C748" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D748" s="7">
+        <v>11</v>
+      </c>
+      <c r="E748" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F748" s="5"/>
+      <c r="H748" s="5">
+        <v>4</v>
+      </c>
+      <c r="I748" s="5">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="J748" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>194</v>
+      </c>
+      <c r="B749" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C749" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D749" s="7">
+        <v>11</v>
+      </c>
+      <c r="E749" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F749" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G749" s="5">
+        <v>2</v>
+      </c>
+      <c r="H749" s="5">
+        <v>1</v>
+      </c>
+      <c r="I749" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="J749" s="3">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>10</v>
+      </c>
+      <c r="B750" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C750" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D750" s="7">
+        <v>11</v>
+      </c>
+      <c r="E750" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F750" s="5"/>
+      <c r="H750" s="5">
+        <v>2</v>
+      </c>
+      <c r="I750" s="5">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J750" s="3">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>194</v>
+      </c>
+      <c r="B751" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C751" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D751" s="7">
+        <v>11</v>
+      </c>
+      <c r="E751" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F751" s="5"/>
+      <c r="H751" s="5">
+        <v>3</v>
+      </c>
+      <c r="I751" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="J751" s="3">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>10</v>
+      </c>
+      <c r="B752" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C752" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D752" s="7">
+        <v>11</v>
+      </c>
+      <c r="E752" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F752" s="5"/>
+      <c r="H752" s="5">
+        <v>4</v>
+      </c>
+      <c r="I752" s="5">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="J752" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>10</v>
+      </c>
+      <c r="B753" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C753" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D753" s="7">
+        <v>11</v>
+      </c>
+      <c r="E753" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F753" s="5"/>
+      <c r="H753" s="5">
+        <v>5</v>
+      </c>
+      <c r="I753" s="5">
+        <v>0.313</v>
+      </c>
+      <c r="J753" s="3">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>10</v>
+      </c>
+      <c r="B754" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C754" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D754" s="7">
+        <v>11</v>
+      </c>
+      <c r="E754" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F754" s="5"/>
+      <c r="H754" s="5">
+        <v>6</v>
+      </c>
+      <c r="I754" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="J754" s="3">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>194</v>
+      </c>
+      <c r="B755" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C755" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D755" s="7">
+        <v>11</v>
+      </c>
+      <c r="E755" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F755" s="5"/>
+      <c r="H755" s="5">
+        <v>7</v>
+      </c>
+      <c r="I755" s="5">
+        <v>0.441</v>
+      </c>
+      <c r="J755" s="3">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>10</v>
+      </c>
+      <c r="B756" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C756" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D756" s="7">
+        <v>11</v>
+      </c>
+      <c r="E756" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F756" s="5"/>
+      <c r="H756" s="5">
+        <v>8</v>
+      </c>
+      <c r="I756" s="5">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="J756" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>194</v>
+      </c>
+      <c r="B757" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C757" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D757" s="7">
+        <v>11</v>
+      </c>
+      <c r="E757" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F757" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G757" s="5">
+        <v>3</v>
+      </c>
+      <c r="H757" s="5">
+        <v>1</v>
+      </c>
+      <c r="I757" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="J757" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>10</v>
+      </c>
+      <c r="B758" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C758" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D758" s="7">
+        <v>11</v>
+      </c>
+      <c r="E758" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H758" s="5">
+        <v>2</v>
+      </c>
+      <c r="I758" s="5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="J758" s="3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>194</v>
+      </c>
+      <c r="B759" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C759" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D759" s="7">
+        <v>11</v>
+      </c>
+      <c r="E759" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F759" s="5"/>
+      <c r="H759" s="5">
+        <v>3</v>
+      </c>
+      <c r="I759" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="J759" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>10</v>
+      </c>
+      <c r="B760" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C760" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D760" s="7">
+        <v>11</v>
+      </c>
+      <c r="E760" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F760" s="5"/>
+      <c r="H760" s="5">
+        <v>4</v>
+      </c>
+      <c r="I760" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="J760" s="3">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>10</v>
+      </c>
+      <c r="B761" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C761" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D761" s="7">
+        <v>11</v>
+      </c>
+      <c r="E761" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F761" s="5"/>
+      <c r="H761" s="5">
+        <v>5</v>
+      </c>
+      <c r="I761" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="J761" s="3">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>10</v>
+      </c>
+      <c r="B762" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C762" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D762" s="7">
+        <v>11</v>
+      </c>
+      <c r="E762" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H762" s="5">
+        <v>6</v>
+      </c>
+      <c r="I762" s="5">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="J762" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>194</v>
+      </c>
+      <c r="B763" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C763" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D763" s="7">
+        <v>11</v>
+      </c>
+      <c r="E763" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F763" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G763" s="5">
+        <v>4</v>
+      </c>
+      <c r="H763" s="5">
+        <v>1</v>
+      </c>
+      <c r="I763" s="5">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J763" s="3">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>10</v>
+      </c>
+      <c r="B764" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C764" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D764" s="7">
+        <v>11</v>
+      </c>
+      <c r="E764" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F764" s="5"/>
+      <c r="H764" s="5">
+        <v>2</v>
+      </c>
+      <c r="I764" s="5">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J764" s="3">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>194</v>
+      </c>
+      <c r="B765" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C765" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D765" s="7">
+        <v>11</v>
+      </c>
+      <c r="E765" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F765" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G765" s="5">
+        <v>5</v>
+      </c>
+      <c r="H765" s="5">
+        <v>1</v>
+      </c>
+      <c r="I765" s="5">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J765" s="3">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>10</v>
+      </c>
+      <c r="B766" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C766" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D766" s="7">
+        <v>11</v>
+      </c>
+      <c r="E766" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F766" s="5"/>
+      <c r="H766" s="5">
+        <v>2</v>
+      </c>
+      <c r="I766" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="J766" s="3">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>194</v>
+      </c>
+      <c r="B767" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C767" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D767" s="7">
+        <v>11</v>
+      </c>
+      <c r="E767" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F767" s="5"/>
+      <c r="H767" s="5">
+        <v>3</v>
+      </c>
+      <c r="I767" s="5">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="J767" s="3">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>10</v>
+      </c>
+      <c r="B768" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C768" s="6">
+        <v>45268</v>
+      </c>
+      <c r="D768" s="7">
+        <v>11</v>
+      </c>
+      <c r="E768" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H768" s="5">
+        <v>4</v>
+      </c>
+      <c r="I768" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="J768" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>194</v>
+      </c>
+      <c r="B769" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C769" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D769" s="7">
+        <v>13</v>
+      </c>
+      <c r="E769" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F769" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G769" s="5">
+        <v>1</v>
+      </c>
+      <c r="H769" s="5">
+        <v>1</v>
+      </c>
+      <c r="I769" s="5">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J769" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>10</v>
+      </c>
+      <c r="B770" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C770" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D770" s="7">
+        <v>13</v>
+      </c>
+      <c r="E770" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F770" s="5"/>
+      <c r="H770" s="5">
+        <v>2</v>
+      </c>
+      <c r="I770" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="J770" s="3">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>10</v>
+      </c>
+      <c r="B771" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C771" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D771" s="7">
+        <v>13</v>
+      </c>
+      <c r="E771" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G771" s="5">
+        <v>2</v>
+      </c>
+      <c r="H771" s="5">
+        <v>3</v>
+      </c>
+      <c r="I771" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="J771" s="3">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>10</v>
+      </c>
+      <c r="B772" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C772" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D772" s="7">
+        <v>13</v>
+      </c>
+      <c r="E772" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F772" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G772" s="5">
+        <v>3</v>
+      </c>
+      <c r="H772" s="5">
+        <v>1</v>
+      </c>
+      <c r="I772" s="5">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="J772" s="3">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>194</v>
+      </c>
+      <c r="B773" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C773" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D773" s="7">
+        <v>13</v>
+      </c>
+      <c r="E773" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F773" s="5"/>
+      <c r="H773" s="5">
+        <v>2</v>
+      </c>
+      <c r="I773" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="J773" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>10</v>
+      </c>
+      <c r="B774" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C774" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D774" s="7">
+        <v>13</v>
+      </c>
+      <c r="E774" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F774" s="5"/>
+      <c r="H774" s="5">
+        <v>3</v>
+      </c>
+      <c r="I774" s="5">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="J774" s="3">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>194</v>
+      </c>
+      <c r="B775" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C775" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D775" s="7">
+        <v>13</v>
+      </c>
+      <c r="E775" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F775" s="5"/>
+      <c r="H775" s="5">
+        <v>4</v>
+      </c>
+      <c r="I775" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J775" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>10</v>
+      </c>
+      <c r="B776" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C776" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D776" s="7">
+        <v>13</v>
+      </c>
+      <c r="E776" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F776" s="5"/>
+      <c r="H776" s="5">
+        <v>5</v>
+      </c>
+      <c r="I776" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J776" s="3">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>194</v>
+      </c>
+      <c r="B777" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C777" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D777" s="7">
+        <v>13</v>
+      </c>
+      <c r="E777" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F777" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G777" s="5">
+        <v>4</v>
+      </c>
+      <c r="H777" s="5">
+        <v>1</v>
+      </c>
+      <c r="I777" s="5">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J777" s="3">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>10</v>
+      </c>
+      <c r="B778" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C778" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D778" s="7">
+        <v>13</v>
+      </c>
+      <c r="E778" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F778" s="5"/>
+      <c r="H778" s="5">
+        <v>2</v>
+      </c>
+      <c r="I778" s="5">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J778" s="3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>194</v>
+      </c>
+      <c r="B779" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C779" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D779" s="7">
+        <v>13</v>
+      </c>
+      <c r="E779" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F779" s="5"/>
+      <c r="H779" s="5">
+        <v>3</v>
+      </c>
+      <c r="I779" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="J779" s="3">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>10</v>
+      </c>
+      <c r="B780" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C780" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D780" s="7">
+        <v>13</v>
+      </c>
+      <c r="E780" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F780" s="5"/>
+      <c r="H780" s="5">
+        <v>4</v>
+      </c>
+      <c r="I780" s="5">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="J780" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>10</v>
+      </c>
+      <c r="B781" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C781" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D781" s="7">
+        <v>13</v>
+      </c>
+      <c r="E781" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H781" s="5">
+        <v>5</v>
+      </c>
+      <c r="I781" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="J781" s="3">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>10</v>
+      </c>
+      <c r="B782" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C782" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D782" s="7">
+        <v>13</v>
+      </c>
+      <c r="E782" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H782" s="5">
+        <v>6</v>
+      </c>
+      <c r="I782" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J782" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>194</v>
+      </c>
+      <c r="B783" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C783" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D783" s="7">
+        <v>13</v>
+      </c>
+      <c r="E783" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F783" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G783" s="5">
+        <v>5</v>
+      </c>
+      <c r="H783" s="5">
+        <v>1</v>
+      </c>
+      <c r="I783" s="5">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J783" s="3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>10</v>
+      </c>
+      <c r="B784" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C784" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D784" s="7">
+        <v>13</v>
+      </c>
+      <c r="E784" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F784" s="5"/>
+      <c r="H784" s="5">
+        <v>2</v>
+      </c>
+      <c r="I784" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J784" s="3">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>194</v>
+      </c>
+      <c r="B785" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C785" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D785" s="7">
+        <v>13</v>
+      </c>
+      <c r="E785" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F785" s="5"/>
+      <c r="H785" s="5">
+        <v>3</v>
+      </c>
+      <c r="I785" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="J785" s="3">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>10</v>
+      </c>
+      <c r="B786" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C786" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D786" s="7">
+        <v>13</v>
+      </c>
+      <c r="E786" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H786" s="5">
+        <v>4</v>
+      </c>
+      <c r="I786" s="5">
+        <v>0.437</v>
+      </c>
+      <c r="J786" s="3">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>194</v>
+      </c>
+      <c r="B787" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C787" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D787" s="7">
+        <v>13</v>
+      </c>
+      <c r="E787" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G787">
+        <v>6</v>
+      </c>
+      <c r="H787">
+        <v>1</v>
+      </c>
+      <c r="I787" s="5">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="J787" s="3">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>10</v>
+      </c>
+      <c r="B788" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C788" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D788" s="7">
+        <v>13</v>
+      </c>
+      <c r="E788" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H788">
+        <v>2</v>
+      </c>
+      <c r="I788" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J788" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>194</v>
+      </c>
+      <c r="B789" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C789" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D789" s="7">
+        <v>13</v>
+      </c>
+      <c r="E789" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H789">
+        <v>3</v>
+      </c>
+      <c r="I789" s="5">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="J789" s="3">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>10</v>
+      </c>
+      <c r="B790" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C790" s="6">
+        <v>45289</v>
+      </c>
+      <c r="D790" s="7">
+        <v>13</v>
+      </c>
+      <c r="E790" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H790">
+        <v>4</v>
+      </c>
+      <c r="I790" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J790" s="3">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>194</v>
+      </c>
+      <c r="B791" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C791" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D791" s="7">
+        <v>14</v>
+      </c>
+      <c r="E791" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F791" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G791" s="5">
+        <v>1</v>
+      </c>
+      <c r="H791">
+        <v>1</v>
+      </c>
+      <c r="I791" s="5">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J791" s="3">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>10</v>
+      </c>
+      <c r="B792" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C792" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D792" s="7">
+        <v>14</v>
+      </c>
+      <c r="E792" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F792" s="5"/>
+      <c r="H792">
+        <v>2</v>
+      </c>
+      <c r="I792" s="5">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="J792" s="3">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>194</v>
+      </c>
+      <c r="B793" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C793" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D793" s="7">
+        <v>14</v>
+      </c>
+      <c r="E793" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F793" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G793" s="5">
+        <v>2</v>
+      </c>
+      <c r="H793">
+        <v>1</v>
+      </c>
+      <c r="I793" s="5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J793" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>10</v>
+      </c>
+      <c r="B794" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C794" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D794" s="7">
+        <v>14</v>
+      </c>
+      <c r="E794" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F794" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G794" s="5">
+        <v>3</v>
+      </c>
+      <c r="H794" s="5">
+        <v>1</v>
+      </c>
+      <c r="I794" s="5">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J794" s="3">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>194</v>
+      </c>
+      <c r="B795" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C795" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D795" s="7">
+        <v>14</v>
+      </c>
+      <c r="E795" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H795" s="5">
+        <v>2</v>
+      </c>
+      <c r="I795" s="5">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="J795" s="3">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>10</v>
+      </c>
+      <c r="B796" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C796" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D796" s="7">
+        <v>14</v>
+      </c>
+      <c r="E796" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F796" s="5"/>
+      <c r="H796" s="5">
+        <v>3</v>
+      </c>
+      <c r="I796" s="5">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="J796" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>194</v>
+      </c>
+      <c r="B797" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C797" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D797" s="7">
+        <v>14</v>
+      </c>
+      <c r="E797" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F797" s="5"/>
+      <c r="H797" s="5">
+        <v>4</v>
+      </c>
+      <c r="I797" s="5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="J797" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>10</v>
+      </c>
+      <c r="B798" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C798" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D798" s="7">
+        <v>14</v>
+      </c>
+      <c r="E798" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F798" s="5"/>
+      <c r="H798" s="5">
+        <v>5</v>
+      </c>
+      <c r="I798" s="5">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="J798" s="3">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>194</v>
+      </c>
+      <c r="B799" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C799" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D799" s="7">
+        <v>14</v>
+      </c>
+      <c r="E799" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F799" s="5"/>
+      <c r="H799" s="5">
+        <v>6</v>
+      </c>
+      <c r="I799" s="5">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J799" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>10</v>
+      </c>
+      <c r="B800" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C800" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D800" s="7">
+        <v>14</v>
+      </c>
+      <c r="E800" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F800" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G800" s="5">
+        <v>4</v>
+      </c>
+      <c r="H800" s="5">
+        <v>1</v>
+      </c>
+      <c r="I800" s="5">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="J800" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>194</v>
+      </c>
+      <c r="B801" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C801" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D801" s="7">
+        <v>14</v>
+      </c>
+      <c r="E801" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H801" s="5">
+        <v>2</v>
+      </c>
+      <c r="I801" s="5">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="J801" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>10</v>
+      </c>
+      <c r="B802" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C802" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D802" s="7">
+        <v>14</v>
+      </c>
+      <c r="E802" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F802" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G802" s="5">
+        <v>3</v>
+      </c>
+      <c r="H802">
+        <v>7</v>
+      </c>
+      <c r="I802" s="5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="J802" s="3">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>194</v>
+      </c>
+      <c r="B803" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C803" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D803" s="7">
+        <v>14</v>
+      </c>
+      <c r="E803" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H803">
+        <v>8</v>
+      </c>
+      <c r="I803" s="5">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="J803" s="3">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>10</v>
+      </c>
+      <c r="B804" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C804" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D804" s="7">
+        <v>14</v>
+      </c>
+      <c r="E804" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F804" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G804" s="5">
+        <v>2</v>
+      </c>
+      <c r="H804">
+        <v>2</v>
+      </c>
+      <c r="I804" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="J804" s="3">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>194</v>
+      </c>
+      <c r="B805" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C805" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D805" s="7">
+        <v>14</v>
+      </c>
+      <c r="E805" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F805" s="5"/>
+      <c r="H805">
+        <v>3</v>
+      </c>
+      <c r="I805" s="5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J805" s="3">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>10</v>
+      </c>
+      <c r="B806" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C806" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D806" s="7">
+        <v>14</v>
+      </c>
+      <c r="E806" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H806">
+        <v>4</v>
+      </c>
+      <c r="I806" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J806" s="3">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>194</v>
+      </c>
+      <c r="B807" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C807" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D807" s="7">
+        <v>14</v>
+      </c>
+      <c r="E807" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H807">
+        <v>5</v>
+      </c>
+      <c r="I807" s="5">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J807" s="3">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>194</v>
+      </c>
+      <c r="B808" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C808" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D808" s="7">
+        <v>14</v>
+      </c>
+      <c r="E808" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F808" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H808">
+        <v>1</v>
+      </c>
+      <c r="I808" s="5">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="J808" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>10</v>
+      </c>
+      <c r="B809" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C809" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D809" s="7">
+        <v>14</v>
+      </c>
+      <c r="E809" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F809" s="5"/>
+      <c r="H809">
+        <v>2</v>
+      </c>
+      <c r="I809" s="5">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J809" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>194</v>
+      </c>
+      <c r="B810" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C810" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D810" s="7">
+        <v>14</v>
+      </c>
+      <c r="E810" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F810" s="5"/>
+      <c r="H810">
+        <v>3</v>
+      </c>
+      <c r="I810" s="5">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J810" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="811" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>10</v>
+      </c>
+      <c r="B811" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C811" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D811" s="7">
+        <v>14</v>
+      </c>
+      <c r="E811" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F811" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H811">
+        <v>1</v>
+      </c>
+      <c r="I811" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J811" s="3">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="812" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>194</v>
+      </c>
+      <c r="B812" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C812" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D812" s="7">
+        <v>14</v>
+      </c>
+      <c r="E812" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F812" s="5"/>
+      <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812" s="5">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="J812" s="3">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="813" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>194</v>
+      </c>
+      <c r="B813" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C813" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D813" s="7">
+        <v>14</v>
+      </c>
+      <c r="E813" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F813" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H813">
+        <v>1</v>
+      </c>
+      <c r="K813" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="814" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>10</v>
+      </c>
+      <c r="B814" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C814" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D814" s="7">
+        <v>14</v>
+      </c>
+      <c r="E814" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F814" s="5"/>
+      <c r="H814">
+        <v>2</v>
+      </c>
+      <c r="I814">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J814" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="815" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>194</v>
+      </c>
+      <c r="B815" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C815" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D815" s="7">
+        <v>14</v>
+      </c>
+      <c r="E815" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F815" s="5"/>
+      <c r="H815">
+        <v>3</v>
+      </c>
+      <c r="I815">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="J815" s="3">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="816" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>10</v>
+      </c>
+      <c r="B816" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C816" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D816" s="7">
+        <v>14</v>
+      </c>
+      <c r="E816" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F816" s="5"/>
+      <c r="H816">
+        <v>4</v>
+      </c>
+      <c r="I816">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J816" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="817" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>194</v>
+      </c>
+      <c r="B817" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C817" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D817" s="7">
+        <v>14</v>
+      </c>
+      <c r="E817" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F817" s="5"/>
+      <c r="H817">
+        <v>5</v>
+      </c>
+      <c r="I817">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J817" s="3">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="818" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>194</v>
+      </c>
+      <c r="B818" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C818" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D818" s="7">
+        <v>14</v>
+      </c>
+      <c r="E818" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F818" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H818">
+        <v>1</v>
+      </c>
+      <c r="I818">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="J818" s="3">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="819" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>10</v>
+      </c>
+      <c r="B819" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C819" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D819" s="7">
+        <v>14</v>
+      </c>
+      <c r="E819" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H819">
+        <v>2</v>
+      </c>
+      <c r="I819">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="J819" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="820" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>194</v>
+      </c>
+      <c r="B820" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C820" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D820" s="7">
+        <v>14</v>
+      </c>
+      <c r="E820" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H820">
+        <v>3</v>
+      </c>
+      <c r="I820">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="J820" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="821" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>10</v>
+      </c>
+      <c r="B821" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C821" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D821" s="7">
+        <v>14</v>
+      </c>
+      <c r="E821" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F821" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H821">
+        <v>1</v>
+      </c>
+      <c r="I821">
+        <v>1.002</v>
+      </c>
+      <c r="J821" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="822" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>194</v>
+      </c>
+      <c r="B822" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C822" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D822" s="7">
+        <v>14</v>
+      </c>
+      <c r="E822" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H822">
+        <v>2</v>
+      </c>
+      <c r="I822">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="J822" s="3">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="823" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>194</v>
+      </c>
+      <c r="B823" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C823" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D823" s="7">
+        <v>14</v>
+      </c>
+      <c r="E823" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F823" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H823">
+        <v>1</v>
+      </c>
+      <c r="K823" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="824" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>10</v>
+      </c>
+      <c r="B824" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C824" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D824" s="7">
+        <v>14</v>
+      </c>
+      <c r="E824" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H824">
+        <v>2</v>
+      </c>
+      <c r="I824">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="J824" s="3">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="825" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>194</v>
+      </c>
+      <c r="B825" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C825" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D825" s="7">
+        <v>14</v>
+      </c>
+      <c r="E825" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F825" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H825">
+        <v>1</v>
+      </c>
+      <c r="I825">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J825" s="3">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="826" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>10</v>
+      </c>
+      <c r="B826" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C826" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D826" s="7">
+        <v>14</v>
+      </c>
+      <c r="E826" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H826">
+        <v>2</v>
+      </c>
+      <c r="I826">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="J826" s="3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="827" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>194</v>
+      </c>
+      <c r="B827" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C827" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D827" s="7">
+        <v>14</v>
+      </c>
+      <c r="E827" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F827" s="5"/>
+      <c r="H827">
+        <v>3</v>
+      </c>
+      <c r="I827">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="J827" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="828" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>194</v>
+      </c>
+      <c r="B828" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C828" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D828" s="7">
+        <v>14</v>
+      </c>
+      <c r="E828" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F828" s="5"/>
+      <c r="H828">
+        <v>4</v>
+      </c>
+      <c r="I828">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J828" s="3">
+        <v>0.58099999999999996</v>
+      </c>
+    </row>
+    <row r="829" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>10</v>
+      </c>
+      <c r="B829" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C829" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D829" s="7">
+        <v>14</v>
+      </c>
+      <c r="E829" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F829" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H829">
+        <v>1</v>
+      </c>
+      <c r="I829">
+        <v>1.036</v>
+      </c>
+      <c r="J829" s="3">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="830" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>194</v>
+      </c>
+      <c r="B830" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C830" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D830" s="7">
+        <v>14</v>
+      </c>
+      <c r="E830" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H830">
+        <v>2</v>
+      </c>
+      <c r="I830">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J830" s="3">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="831" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>10</v>
+      </c>
+      <c r="B831" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C831" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D831" s="7">
+        <v>14</v>
+      </c>
+      <c r="E831" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F831" s="5"/>
+      <c r="H831">
+        <v>3</v>
+      </c>
+      <c r="I831">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J831" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="832" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>194</v>
+      </c>
+      <c r="B832" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C832" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D832" s="7">
+        <v>14</v>
+      </c>
+      <c r="E832" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F832" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H832">
+        <v>1</v>
+      </c>
+      <c r="I832">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="J832" s="3">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>10</v>
+      </c>
+      <c r="B833" s="2">
+        <v>45532</v>
+      </c>
+      <c r="C833" s="6">
+        <v>45212</v>
+      </c>
+      <c r="D833" s="7">
+        <v>14</v>
+      </c>
+      <c r="E833" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F833" s="5"/>
+      <c r="H833">
+        <v>2</v>
+      </c>
+      <c r="I833">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="J833" s="3">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment/data/bodySize/Corynactis body size measurements - Amelia.xlsx
+++ b/experiment/data/bodySize/Corynactis body size measurements - Amelia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amelia/github/MHWsim/experiment/data/bodySize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861EAC8-131B-F84C-B768-1874861DBBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4C9D5E-9FA9-EB45-B211-25CC011DE4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="500" windowWidth="25400" windowHeight="19280" xr2:uid="{62BD7F3B-A361-7441-8079-A65F3CDFBEBC}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="25400" windowHeight="19280" xr2:uid="{62BD7F3B-A361-7441-8079-A65F3CDFBEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="241">
   <si>
     <t>Sampler</t>
   </si>
@@ -750,11 +750,23 @@
   <si>
     <t>PA130475</t>
   </si>
+  <si>
+    <t>PA200287c</t>
+  </si>
+  <si>
+    <t>PA200288c</t>
+  </si>
+  <si>
+    <t>PA200289c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -812,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -822,6 +834,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D129FA4-925D-E749-8055-D13AB8DECCFA}">
-  <dimension ref="A1:P833"/>
+  <dimension ref="A1:P851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K836" sqref="K836"/>
+      <pane ySplit="1" topLeftCell="A814" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M843" sqref="M843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24300,6 +24315,522 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
+    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>10</v>
+      </c>
+      <c r="B834" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C834" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D834" s="5">
+        <v>9</v>
+      </c>
+      <c r="E834" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F834" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G834" s="5">
+        <v>1</v>
+      </c>
+      <c r="H834" s="5">
+        <v>1</v>
+      </c>
+      <c r="I834" s="5">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="J834" s="5">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>10</v>
+      </c>
+      <c r="B835" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C835" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D835" s="5">
+        <v>9</v>
+      </c>
+      <c r="E835" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F835" s="5"/>
+      <c r="G835" s="5"/>
+      <c r="H835" s="5">
+        <v>2</v>
+      </c>
+      <c r="I835" s="5">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J835" s="5">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>10</v>
+      </c>
+      <c r="B836" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C836" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D836" s="5">
+        <v>9</v>
+      </c>
+      <c r="E836" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F836" s="5"/>
+      <c r="G836" s="5"/>
+      <c r="H836" s="5">
+        <v>3</v>
+      </c>
+      <c r="I836" s="5">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J836" s="5">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>10</v>
+      </c>
+      <c r="B837" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C837" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D837" s="5">
+        <v>9</v>
+      </c>
+      <c r="E837" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F837" s="5"/>
+      <c r="G837" s="5"/>
+      <c r="H837" s="5">
+        <v>4</v>
+      </c>
+      <c r="I837" s="5">
+        <v>1.077</v>
+      </c>
+      <c r="J837" s="10">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>10</v>
+      </c>
+      <c r="B838" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C838" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D838" s="5">
+        <v>9</v>
+      </c>
+      <c r="E838" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F838" s="5"/>
+      <c r="G838" s="5"/>
+      <c r="H838" s="5">
+        <v>5</v>
+      </c>
+      <c r="I838" s="5">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J838" s="5">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>10</v>
+      </c>
+      <c r="B839" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C839" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D839" s="5">
+        <v>9</v>
+      </c>
+      <c r="E839" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F839" s="5"/>
+      <c r="G839" s="7"/>
+      <c r="H839" s="7">
+        <v>6</v>
+      </c>
+      <c r="I839" s="7">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J839" s="7">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>10</v>
+      </c>
+      <c r="B840" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C840" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D840" s="5">
+        <v>9</v>
+      </c>
+      <c r="E840" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F840" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G840" s="7">
+        <v>2</v>
+      </c>
+      <c r="H840" s="7">
+        <v>1</v>
+      </c>
+      <c r="I840" s="11">
+        <v>0.624</v>
+      </c>
+      <c r="J840" s="7">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>10</v>
+      </c>
+      <c r="B841" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C841" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D841" s="5">
+        <v>9</v>
+      </c>
+      <c r="E841" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F841" s="5"/>
+      <c r="G841" s="7"/>
+      <c r="H841" s="7">
+        <v>2</v>
+      </c>
+      <c r="I841" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J841" s="7">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>10</v>
+      </c>
+      <c r="B842" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C842" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D842" s="5">
+        <v>9</v>
+      </c>
+      <c r="E842" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F842" s="5"/>
+      <c r="G842" s="7"/>
+      <c r="H842" s="7">
+        <v>3</v>
+      </c>
+      <c r="I842" s="11">
+        <v>1.079</v>
+      </c>
+      <c r="J842" s="7">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>10</v>
+      </c>
+      <c r="B843" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C843" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D843" s="5">
+        <v>9</v>
+      </c>
+      <c r="E843" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F843" s="5"/>
+      <c r="G843" s="7"/>
+      <c r="H843" s="7">
+        <v>4</v>
+      </c>
+      <c r="I843" s="7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="J843" s="7">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>10</v>
+      </c>
+      <c r="B844" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C844" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D844" s="5">
+        <v>9</v>
+      </c>
+      <c r="E844" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F844" s="5"/>
+      <c r="G844" s="7"/>
+      <c r="H844" s="7">
+        <v>5</v>
+      </c>
+      <c r="I844" s="11">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J844" s="7">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>10</v>
+      </c>
+      <c r="B845" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C845" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D845" s="5">
+        <v>9</v>
+      </c>
+      <c r="E845" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F845" s="5"/>
+      <c r="G845" s="7"/>
+      <c r="H845" s="7">
+        <v>6</v>
+      </c>
+      <c r="I845" s="7">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J845" s="7">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>10</v>
+      </c>
+      <c r="B846" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C846" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D846" s="5">
+        <v>9</v>
+      </c>
+      <c r="E846" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F846" s="5"/>
+      <c r="G846" s="7"/>
+      <c r="H846" s="7">
+        <v>7</v>
+      </c>
+      <c r="I846" s="11">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J846" s="7">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>10</v>
+      </c>
+      <c r="B847" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C847" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D847" s="5">
+        <v>9</v>
+      </c>
+      <c r="E847" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F847" s="5"/>
+      <c r="G847" s="7"/>
+      <c r="H847" s="7">
+        <v>8</v>
+      </c>
+      <c r="I847" s="7">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J847" s="7">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>10</v>
+      </c>
+      <c r="B848" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C848" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D848" s="5">
+        <v>9</v>
+      </c>
+      <c r="E848" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F848" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G848" s="5">
+        <v>3</v>
+      </c>
+      <c r="H848" s="5">
+        <v>1</v>
+      </c>
+      <c r="I848" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J848" s="5">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>10</v>
+      </c>
+      <c r="B849" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C849" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D849" s="5">
+        <v>9</v>
+      </c>
+      <c r="E849" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F849" s="5"/>
+      <c r="G849" s="5"/>
+      <c r="H849" s="5">
+        <v>2</v>
+      </c>
+      <c r="I849" s="5">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="J849" s="5">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>10</v>
+      </c>
+      <c r="B850" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C850" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D850" s="5">
+        <v>9</v>
+      </c>
+      <c r="E850" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F850" s="5"/>
+      <c r="G850" s="5"/>
+      <c r="H850" s="5">
+        <v>3</v>
+      </c>
+      <c r="I850" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="J850" s="5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>10</v>
+      </c>
+      <c r="B851" s="2">
+        <v>45544</v>
+      </c>
+      <c r="C851" s="9">
+        <v>45219</v>
+      </c>
+      <c r="D851" s="5">
+        <v>9</v>
+      </c>
+      <c r="E851" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F851" s="5"/>
+      <c r="G851" s="5"/>
+      <c r="H851" s="5">
+        <v>4</v>
+      </c>
+      <c r="I851" s="5">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="J851" s="5">
+        <v>0.499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
